--- a/doc/yamatea_doc.xlsx
+++ b/doc/yamatea_doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991FA344-1F0F-473E-B885-3EB70B91CA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{E3E0C897-E197-498D-BED0-464F92AF37EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="330" windowWidth="25440" windowHeight="15270" tabRatio="929" xr2:uid="{E816E0D0-A7F4-40B0-9C6A-B1F37CC063DF}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <sheet name="おすすめクラス" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -200,16 +201,7 @@
   <si>
     <t>下記PATHの「TMAX_APP_BINARY_SIZE」の値を2MB以上となるように変更する</t>
     <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ヘンコウ</t>
+      <t>カキアタイイジョウヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5287,9 +5279,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7300420E-7873-487C-8C20-0B6849B2CB3D}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
